--- a/PartsInfo/KCX_BT_EMITTER_AT_Cmds.xlsx
+++ b/PartsInfo/KCX_BT_EMITTER_AT_Cmds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-Mark-MDO47\RubberBandGun\PartsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE4631-F2B7-4B4D-ACC5-72170C7389DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26F739-A55A-4BD9-A169-5629720D8B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="555" windowWidth="23490" windowHeight="19935" xr2:uid="{425CD245-9C50-47BA-813B-5D0AE73B2BB8}"/>
+    <workbookView xWindow="14700" yWindow="855" windowWidth="23490" windowHeight="19935" xr2:uid="{425CD245-9C50-47BA-813B-5D0AE73B2BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="KCX_BT_EMITTER" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="439">
   <si>
     <t>To program one or more BT devices into the module, follow these steps:</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>ALL Devices=1 (the total number of devices currently searched is 1)</t>
-  </si>
-  <si>
-    <t>&lt;8&gt;: add automatically connected MAC address</t>
   </si>
   <si>
     <t>Description: with this command-set, a total of 10 MAC address records can be attached to 10 devices in a sequence.</t>
@@ -4279,6 +4276,9 @@
   </si>
   <si>
     <t>will also say CONNECTED or DISCONNECT</t>
+  </si>
+  <si>
+    <t>Delete_Vmlink</t>
   </si>
 </sst>
 </file>
@@ -4718,19 +4718,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4745,52 +4733,19 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4811,25 +4766,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4854,6 +4791,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -5171,9 +5171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B983CD55-C9A9-47F2-B22A-88E56314ECED}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5186,22 +5186,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
       <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>357</v>
-      </c>
       <c r="G1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
@@ -5218,10 +5218,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="G3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -5248,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -5259,13 +5259,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
@@ -5273,13 +5273,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
@@ -5287,13 +5287,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5313,7 +5313,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="G12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5">
@@ -5330,13 +5330,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
@@ -5344,13 +5344,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5">
@@ -5358,13 +5358,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">
@@ -5372,13 +5372,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="G17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
@@ -5398,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5415,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="G21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5">
@@ -5438,13 +5438,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
@@ -5452,13 +5452,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5">
@@ -5466,16 +5466,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5">
@@ -5483,13 +5483,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5">
@@ -5497,13 +5497,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5">
@@ -5511,13 +5511,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="G28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5">
@@ -5534,13 +5534,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5">
@@ -5548,13 +5548,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5">
@@ -5562,13 +5562,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5">
@@ -5576,13 +5576,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5">
@@ -5590,13 +5590,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="G34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5">
@@ -5613,13 +5613,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5">
@@ -5627,13 +5627,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5">
@@ -5641,13 +5641,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="G38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="49.5">
@@ -5664,7 +5664,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -5687,16 +5687,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="G42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="33">
@@ -5713,13 +5713,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5736,13 +5736,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5">
@@ -5750,14 +5750,14 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="2"/>
       <c r="G46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5766,10 +5766,10 @@
       </c>
       <c r="C47" s="2"/>
       <c r="E47" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="75">
@@ -5780,7 +5780,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="G49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="33">
@@ -5800,7 +5800,7 @@
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="G51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5">
@@ -5820,7 +5820,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="G53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5">
@@ -5837,13 +5837,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5">
@@ -5851,13 +5851,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5874,13 +5874,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5">
@@ -5888,13 +5888,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5">
@@ -5902,7 +5902,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>37</v>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="G60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="G61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5">
@@ -5934,13 +5934,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5">
@@ -5948,13 +5948,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="G64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5">
@@ -5971,13 +5971,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5">
@@ -5985,16 +5985,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5">
@@ -6002,7 +6002,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>42</v>
@@ -6016,12 +6016,12 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="41" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="G69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5">
@@ -6042,13 +6042,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5">
@@ -6056,16 +6056,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5">
@@ -6073,13 +6073,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5">
@@ -6087,16 +6087,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="62" t="s">
+      <c r="D73" s="41" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5">
@@ -6104,16 +6104,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="62" t="s">
-        <v>363</v>
+      <c r="D74" s="41" t="s">
+        <v>362</v>
       </c>
       <c r="G74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5">
@@ -6121,16 +6121,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="62" t="s">
-        <v>361</v>
+      <c r="D75" s="41" t="s">
+        <v>360</v>
       </c>
       <c r="G75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="C76" s="2"/>
       <c r="G76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5">
@@ -6147,13 +6147,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5">
@@ -6161,16 +6161,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="G78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5">
@@ -6178,13 +6178,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5">
@@ -6192,16 +6192,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="62" t="s">
+      <c r="D80" s="41" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5">
@@ -6209,16 +6209,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D81" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="41" t="s">
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="C82" s="2"/>
       <c r="G82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5">
@@ -6235,13 +6235,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5">
@@ -6249,16 +6249,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5">
@@ -6266,13 +6266,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5">
@@ -6280,16 +6280,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D86" s="41" t="s">
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5">
@@ -6297,13 +6297,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="62" t="s">
-        <v>368</v>
+      <c r="D87" s="41" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6317,7 +6317,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>54</v>
@@ -6328,13 +6328,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5">
@@ -6342,7 +6342,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>55</v>
@@ -6353,12 +6353,12 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="62" t="s">
+      <c r="D92" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6367,13 +6367,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D93" s="62" t="s">
         <v>371</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5">
@@ -6381,13 +6381,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="62" t="s">
-        <v>362</v>
+      <c r="D94" s="41" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6401,7 +6401,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>57</v>
@@ -6412,13 +6412,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5">
@@ -6426,10 +6426,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5">
@@ -6437,13 +6437,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" s="41" t="s">
         <v>377</v>
-      </c>
-      <c r="D99" s="62" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5">
@@ -6451,13 +6451,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="62" t="s">
-        <v>373</v>
+      <c r="D100" s="41" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6471,7 +6471,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>59</v>
@@ -6482,13 +6482,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5">
@@ -6496,7 +6496,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>60</v>
@@ -6507,13 +6507,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D105" s="62" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5">
@@ -6521,13 +6521,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D106" s="62" t="s">
         <v>383</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5">
@@ -6535,13 +6535,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D107" s="62" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5">
@@ -6549,13 +6549,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D108" s="62" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5">
@@ -6563,13 +6563,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D109" s="62" t="s">
-        <v>374</v>
+      <c r="D109" s="41" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6583,10 +6583,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16.5">
@@ -6594,13 +6594,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5">
@@ -6608,10 +6608,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5">
@@ -6619,10 +6619,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="33">
@@ -6630,10 +6630,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5">
@@ -6641,10 +6641,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5">
@@ -6652,12 +6652,12 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D117" s="62" t="s">
+      <c r="D117" s="41" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6666,12 +6666,12 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6680,13 +6680,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D119" s="62" t="s">
-        <v>392</v>
+        <v>67</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="33">
@@ -6694,10 +6694,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5">
@@ -6705,10 +6705,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6722,10 +6722,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5">
@@ -6733,13 +6733,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="33">
@@ -6747,10 +6747,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="16.5">
@@ -6758,10 +6758,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="33">
@@ -6769,10 +6769,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="16.5">
@@ -6780,10 +6780,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="16.5">
@@ -6791,24 +6791,24 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="62"/>
+      <c r="D129" s="41"/>
     </row>
     <row r="130" spans="1:4" ht="16.5">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" s="41" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6817,13 +6817,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D131" s="62" t="s">
-        <v>408</v>
+        <v>76</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="33">
@@ -6831,10 +6831,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="16.5">
@@ -6842,10 +6842,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6859,10 +6859,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="16.5">
@@ -6870,13 +6870,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="16.5">
@@ -6884,10 +6884,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="16.5">
@@ -6895,10 +6895,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="16.5">
@@ -6906,13 +6906,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D139" s="62" t="s">
-        <v>396</v>
+        <v>82</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="16.5">
@@ -6920,13 +6920,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D140" s="62" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="16.5">
@@ -6934,13 +6934,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D141" s="62" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="D141" s="41" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="16.5">
@@ -6948,13 +6948,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D142" s="62" t="s">
-        <v>401</v>
+        <v>83</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="16.5">
@@ -6962,13 +6962,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D143" s="62" t="s">
-        <v>402</v>
+        <v>84</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="16.5">
@@ -6976,117 +6976,120 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" s="62" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="16.5">
+    <row r="146" spans="1:5" ht="16.5">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="16.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16.5">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C147" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="18.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:5" ht="18.75" customHeight="1">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16.5">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="62" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="D149" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E149" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="16.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16.5">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7116,15 +7119,15 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" thickBot="1">
       <c r="B3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -7140,13 +7143,13 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="B4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -7160,13 +7163,13 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="B5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -7194,7 +7197,7 @@
     </row>
     <row r="7" spans="1:13" ht="24" thickBot="1">
       <c r="B7" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7210,13 +7213,13 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="B8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -7230,13 +7233,13 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="B9" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -7278,7 +7281,7 @@
     </row>
     <row r="12" spans="1:13" ht="24" thickBot="1">
       <c r="B12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7294,13 +7297,13 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="B13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -7313,14 +7316,14 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="45" t="s">
         <v>112</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -7333,11 +7336,11 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B15" s="20"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D15" s="47"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -7364,7 +7367,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7379,7 +7382,7 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="15.75">
-      <c r="B18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -7393,11 +7396,11 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="59">
+      <c r="B19" s="38">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>115</v>
+      <c r="C19" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -7411,11 +7414,11 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="59">
+      <c r="B20" s="38">
         <v>2</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>116</v>
+      <c r="C20" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -7429,11 +7432,11 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="59">
+      <c r="B21" s="38">
         <v>3</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>106</v>
+      <c r="C21" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="23" spans="2:13" ht="24" thickBot="1">
       <c r="B23" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -7478,7 +7481,7 @@
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1">
       <c r="B24" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -7494,7 +7497,7 @@
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1">
       <c r="B25" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -7524,7 +7527,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -7540,7 +7543,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -7556,7 +7559,7 @@
     </row>
     <row r="29" spans="2:13" ht="24" thickBot="1">
       <c r="B29" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -7572,7 +7575,7 @@
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1">
       <c r="B30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -7588,7 +7591,7 @@
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1">
       <c r="B31" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7618,7 +7621,7 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -7634,7 +7637,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -7649,7 +7652,7 @@
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="2:13" ht="15.75">
-      <c r="B35" s="22"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -7663,11 +7666,11 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="59">
+      <c r="B36" s="38">
         <v>1</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>124</v>
+      <c r="C36" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -7681,11 +7684,11 @@
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="59">
+      <c r="B37" s="38">
         <v>2</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>125</v>
+      <c r="C37" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -7699,11 +7702,11 @@
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="59">
+      <c r="B38" s="38">
         <v>3</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>106</v>
+      <c r="C38" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -7746,7 +7749,7 @@
     </row>
     <row r="41" spans="2:13" ht="24" thickBot="1">
       <c r="B41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -7762,13 +7765,13 @@
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1">
       <c r="B42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7782,13 +7785,13 @@
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1">
       <c r="B43" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>128</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7801,13 +7804,13 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="28"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -7819,11 +7822,11 @@
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="29"/>
-      <c r="C45" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="30"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="61"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -7835,11 +7838,11 @@
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="29"/>
-      <c r="C46" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="30"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="61"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -7851,11 +7854,11 @@
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B47" s="32"/>
-      <c r="C47" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="34"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="57"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -7882,7 +7885,7 @@
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -7897,7 +7900,7 @@
       <c r="M49" s="10"/>
     </row>
     <row r="50" spans="2:13" ht="15.75">
-      <c r="B50" s="22"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -7911,11 +7914,11 @@
       <c r="M50" s="10"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="59">
+      <c r="B51" s="38">
         <v>1</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>133</v>
+      <c r="C51" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -7929,11 +7932,11 @@
       <c r="M51" s="10"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="59">
+      <c r="B52" s="38">
         <v>2</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>134</v>
+      <c r="C52" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -7947,11 +7950,11 @@
       <c r="M52" s="10"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="59">
+      <c r="B53" s="38">
         <v>3</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>135</v>
+      <c r="C53" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -7965,11 +7968,11 @@
       <c r="M53" s="10"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="59">
+      <c r="B54" s="38">
         <v>4</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>136</v>
+      <c r="C54" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -7983,11 +7986,11 @@
       <c r="M54" s="10"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="59">
+      <c r="B55" s="38">
         <v>5</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>106</v>
+      <c r="C55" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -8016,7 +8019,7 @@
     </row>
     <row r="57" spans="2:13" ht="24" thickBot="1">
       <c r="B57" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -8032,13 +8035,13 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1">
       <c r="B58" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -8051,14 +8054,14 @@
       <c r="M58" s="10"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="D59" s="45" t="s">
         <v>139</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -8071,11 +8074,11 @@
       <c r="M59" s="10"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="35"/>
-      <c r="C60" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="36"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="46"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -8087,11 +8090,11 @@
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="35"/>
-      <c r="C61" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="36"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="46"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -8103,11 +8106,11 @@
       <c r="M61" s="10"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B62" s="20"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="D62" s="47"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -8134,7 +8137,7 @@
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8149,7 +8152,7 @@
       <c r="M64" s="10"/>
     </row>
     <row r="65" spans="2:13" ht="15.75">
-      <c r="B65" s="22"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -8163,11 +8166,11 @@
       <c r="M65" s="10"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="59">
+      <c r="B66" s="38">
         <v>1</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>142</v>
+      <c r="C66" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -8181,11 +8184,11 @@
       <c r="M66" s="10"/>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="59">
+      <c r="B67" s="38">
         <v>2</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>143</v>
+      <c r="C67" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -8199,11 +8202,11 @@
       <c r="M67" s="10"/>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="59">
+      <c r="B68" s="38">
         <v>3</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>106</v>
+      <c r="C68" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -8232,7 +8235,7 @@
     </row>
     <row r="70" spans="2:13" ht="24" thickBot="1">
       <c r="B70" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8248,13 +8251,13 @@
     </row>
     <row r="71" spans="2:13" ht="15.75" thickBot="1">
       <c r="B71" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="D71" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -8267,14 +8270,14 @@
       <c r="M71" s="10"/>
     </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>146</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
@@ -8287,10 +8290,10 @@
       <c r="M72" s="10"/>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="35"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="39" t="s">
-        <v>147</v>
+      <c r="B73" s="43"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -8303,10 +8306,10 @@
       <c r="M73" s="10"/>
     </row>
     <row r="74" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B74" s="20"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="25" t="s">
-        <v>148</v>
+      <c r="B74" s="44"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
@@ -8319,13 +8322,13 @@
       <c r="M74" s="10"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="28"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -8337,11 +8340,11 @@
       <c r="M75" s="10"/>
     </row>
     <row r="76" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B76" s="32"/>
-      <c r="C76" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="34"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="57"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -8382,7 +8385,7 @@
     </row>
     <row r="79" spans="2:13" ht="24" thickBot="1">
       <c r="B79" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -8398,13 +8401,13 @@
     </row>
     <row r="80" spans="2:13" ht="15.75" thickBot="1">
       <c r="B80" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
@@ -8418,13 +8421,13 @@
     </row>
     <row r="81" spans="2:13" ht="15.75" thickBot="1">
       <c r="B81" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>153</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -8437,13 +8440,13 @@
       <c r="M81" s="10"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="28"/>
+      <c r="D82" s="56"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -8455,11 +8458,11 @@
       <c r="M82" s="10"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="29"/>
-      <c r="C83" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D83" s="30"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="61"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -8471,11 +8474,11 @@
       <c r="M83" s="10"/>
     </row>
     <row r="84" spans="2:13">
-      <c r="B84" s="29"/>
-      <c r="C84" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="30"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="61"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -8487,11 +8490,11 @@
       <c r="M84" s="10"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B85" s="32"/>
-      <c r="C85" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="34"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="57"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="88" spans="2:13" ht="24" thickBot="1">
       <c r="B88" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -8548,13 +8551,13 @@
     </row>
     <row r="89" spans="2:13" ht="15.75" thickBot="1">
       <c r="B89" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="D89" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
@@ -8567,14 +8570,14 @@
       <c r="M89" s="10"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="45" t="s">
         <v>157</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
@@ -8587,11 +8590,11 @@
       <c r="M90" s="10"/>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="35"/>
-      <c r="C91" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="36"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="46"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
@@ -8603,11 +8606,11 @@
       <c r="M91" s="10"/>
     </row>
     <row r="92" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B92" s="20"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="D92" s="47"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -8619,13 +8622,13 @@
       <c r="M92" s="10"/>
     </row>
     <row r="93" spans="2:13">
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D93" s="28"/>
+      <c r="D93" s="56"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -8637,11 +8640,11 @@
       <c r="M93" s="10"/>
     </row>
     <row r="94" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B94" s="32"/>
-      <c r="C94" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" s="34"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="57"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -8668,7 +8671,7 @@
     </row>
     <row r="96" spans="2:13">
       <c r="B96" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -8682,9 +8685,9 @@
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
     </row>
-    <row r="97" spans="2:13" ht="15.75">
-      <c r="B97" s="42" t="s">
-        <v>161</v>
+    <row r="97" spans="2:13">
+      <c r="B97" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -8699,7 +8702,7 @@
       <c r="M97" s="10"/>
     </row>
     <row r="98" spans="2:13" ht="15.75">
-      <c r="B98" s="22"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -8713,11 +8716,11 @@
       <c r="M98" s="10"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="59">
+      <c r="B99" s="38">
         <v>1</v>
       </c>
-      <c r="C99" s="23" t="s">
-        <v>162</v>
+      <c r="C99" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -8731,11 +8734,11 @@
       <c r="M99" s="10"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="59">
+      <c r="B100" s="38">
         <v>2</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>106</v>
+      <c r="C100" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -8749,11 +8752,11 @@
       <c r="M100" s="10"/>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="59">
+      <c r="B101" s="38">
         <v>3</v>
       </c>
-      <c r="C101" s="23" t="s">
-        <v>163</v>
+      <c r="C101" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -8767,11 +8770,11 @@
       <c r="M101" s="10"/>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="59">
+      <c r="B102" s="38">
         <v>4</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>164</v>
+      <c r="C102" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -8785,11 +8788,11 @@
       <c r="M102" s="10"/>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="59">
+      <c r="B103" s="38">
         <v>5</v>
       </c>
-      <c r="C103" s="23" t="s">
-        <v>106</v>
+      <c r="C103" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -8818,7 +8821,7 @@
     </row>
     <row r="105" spans="2:13" ht="24" thickBot="1">
       <c r="B105" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -8834,13 +8837,13 @@
     </row>
     <row r="106" spans="2:13" ht="15.75" thickBot="1">
       <c r="B106" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
@@ -8853,14 +8856,14 @@
       <c r="M106" s="10"/>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" s="39" t="s">
-        <v>168</v>
+      <c r="B107" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -8873,14 +8876,14 @@
       <c r="M107" s="10"/>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="39" t="s">
-        <v>169</v>
+      <c r="B108" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
@@ -8893,12 +8896,12 @@
       <c r="M108" s="10"/>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="44"/>
-      <c r="C109" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D109" s="39" t="s">
-        <v>170</v>
+      <c r="B109" s="29"/>
+      <c r="C109" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
@@ -8911,10 +8914,10 @@
       <c r="M109" s="10"/>
     </row>
     <row r="110" spans="2:13">
-      <c r="B110" s="44"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="39" t="s">
-        <v>171</v>
+      <c r="B110" s="29"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
@@ -8927,10 +8930,10 @@
       <c r="M110" s="10"/>
     </row>
     <row r="111" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B111" s="46"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="25" t="s">
-        <v>172</v>
+      <c r="B111" s="31"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
@@ -8943,13 +8946,13 @@
       <c r="M111" s="10"/>
     </row>
     <row r="112" spans="2:13">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D112" s="28"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -8961,11 +8964,11 @@
       <c r="M112" s="10"/>
     </row>
     <row r="113" spans="2:13">
-      <c r="B113" s="29"/>
-      <c r="C113" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="30"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" s="61"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
@@ -8977,11 +8980,11 @@
       <c r="M113" s="10"/>
     </row>
     <row r="114" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B114" s="32"/>
-      <c r="C114" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="34"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" s="57"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
@@ -9008,7 +9011,7 @@
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -9023,7 +9026,7 @@
       <c r="M116" s="10"/>
     </row>
     <row r="117" spans="2:13" ht="15.75">
-      <c r="B117" s="22"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -9037,11 +9040,11 @@
       <c r="M117" s="10"/>
     </row>
     <row r="118" spans="2:13">
-      <c r="B118" s="59">
+      <c r="B118" s="38">
         <v>1</v>
       </c>
-      <c r="C118" s="23" t="s">
-        <v>175</v>
+      <c r="C118" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -9055,11 +9058,11 @@
       <c r="M118" s="10"/>
     </row>
     <row r="119" spans="2:13">
-      <c r="B119" s="59">
+      <c r="B119" s="38">
         <v>2</v>
       </c>
-      <c r="C119" s="23" t="s">
-        <v>106</v>
+      <c r="C119" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
@@ -9073,11 +9076,11 @@
       <c r="M119" s="10"/>
     </row>
     <row r="120" spans="2:13">
-      <c r="B120" s="59">
+      <c r="B120" s="38">
         <v>3</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>176</v>
+      <c r="C120" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
@@ -9091,11 +9094,11 @@
       <c r="M120" s="10"/>
     </row>
     <row r="121" spans="2:13">
-      <c r="B121" s="59">
+      <c r="B121" s="38">
         <v>4</v>
       </c>
-      <c r="C121" s="24" t="s">
-        <v>177</v>
+      <c r="C121" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
@@ -9109,11 +9112,11 @@
       <c r="M121" s="10"/>
     </row>
     <row r="122" spans="2:13">
-      <c r="B122" s="59">
+      <c r="B122" s="38">
         <v>5</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>106</v>
+      <c r="C122" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="124" spans="2:13" ht="24" thickBot="1">
       <c r="B124" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -9158,13 +9161,13 @@
     </row>
     <row r="125" spans="2:13" ht="15.75" thickBot="1">
       <c r="B125" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="D125" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -9177,14 +9180,14 @@
       <c r="M125" s="10"/>
     </row>
     <row r="126" spans="2:13">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="C126" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>180</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
@@ -9197,10 +9200,10 @@
       <c r="M126" s="10"/>
     </row>
     <row r="127" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B127" s="20"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="25" t="s">
-        <v>181</v>
+      <c r="B127" s="44"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -9213,13 +9216,13 @@
       <c r="M127" s="10"/>
     </row>
     <row r="128" spans="2:13">
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C128" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D128" s="28"/>
+      <c r="D128" s="56"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
@@ -9231,11 +9234,11 @@
       <c r="M128" s="10"/>
     </row>
     <row r="129" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B129" s="32"/>
-      <c r="C129" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" s="34"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" s="57"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
@@ -9276,7 +9279,7 @@
     </row>
     <row r="132" spans="2:13" ht="24" thickBot="1">
       <c r="B132" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -9292,13 +9295,13 @@
     </row>
     <row r="133" spans="2:13" ht="15.75" thickBot="1">
       <c r="B133" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="D133" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -9311,14 +9314,14 @@
       <c r="M133" s="10"/>
     </row>
     <row r="134" spans="2:13">
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="C134" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D134" s="39" t="s">
-        <v>186</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -9331,10 +9334,10 @@
       <c r="M134" s="10"/>
     </row>
     <row r="135" spans="2:13">
-      <c r="B135" s="35"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="39" t="s">
-        <v>187</v>
+      <c r="B135" s="43"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
@@ -9347,10 +9350,10 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B136" s="20"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="25" t="s">
-        <v>188</v>
+      <c r="B136" s="44"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -9363,11 +9366,11 @@
       <c r="M136" s="10"/>
     </row>
     <row r="137" spans="2:13">
-      <c r="B137" s="48"/>
-      <c r="C137" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D137" s="28"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="56"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
@@ -9379,11 +9382,11 @@
       <c r="M137" s="10"/>
     </row>
     <row r="138" spans="2:13">
-      <c r="B138" s="49"/>
-      <c r="C138" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D138" s="30"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" s="61"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
@@ -9395,11 +9398,11 @@
       <c r="M138" s="10"/>
     </row>
     <row r="139" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B139" s="50"/>
-      <c r="C139" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" s="34"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D139" s="57"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -9426,7 +9429,7 @@
     </row>
     <row r="141" spans="2:13">
       <c r="B141" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
@@ -9441,7 +9444,7 @@
       <c r="M141" s="10"/>
     </row>
     <row r="142" spans="2:13" ht="15.75">
-      <c r="B142" s="22"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
@@ -9455,11 +9458,11 @@
       <c r="M142" s="10"/>
     </row>
     <row r="143" spans="2:13">
-      <c r="B143" s="59">
+      <c r="B143" s="38">
         <v>1</v>
       </c>
-      <c r="C143" s="23" t="s">
-        <v>190</v>
+      <c r="C143" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
@@ -9473,11 +9476,11 @@
       <c r="M143" s="10"/>
     </row>
     <row r="144" spans="2:13">
-      <c r="B144" s="59">
+      <c r="B144" s="38">
         <v>2</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>106</v>
+      <c r="C144" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
@@ -9491,11 +9494,11 @@
       <c r="M144" s="10"/>
     </row>
     <row r="145" spans="2:13">
-      <c r="B145" s="59">
+      <c r="B145" s="38">
         <v>3</v>
       </c>
-      <c r="C145" s="23" t="s">
-        <v>191</v>
+      <c r="C145" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
@@ -9509,11 +9512,11 @@
       <c r="M145" s="10"/>
     </row>
     <row r="146" spans="2:13">
-      <c r="B146" s="59">
+      <c r="B146" s="38">
         <v>4</v>
       </c>
-      <c r="C146" s="24" t="s">
-        <v>192</v>
+      <c r="C146" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
@@ -9527,11 +9530,11 @@
       <c r="M146" s="10"/>
     </row>
     <row r="147" spans="2:13">
-      <c r="B147" s="59">
+      <c r="B147" s="38">
         <v>5</v>
       </c>
-      <c r="C147" s="23" t="s">
-        <v>106</v>
+      <c r="C147" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -9560,7 +9563,7 @@
     </row>
     <row r="149" spans="2:13" ht="24" thickBot="1">
       <c r="B149" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
@@ -9576,13 +9579,13 @@
     </row>
     <row r="150" spans="2:13" ht="15.75" thickBot="1">
       <c r="B150" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="D150" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
@@ -9595,14 +9598,14 @@
       <c r="M150" s="10"/>
     </row>
     <row r="151" spans="2:13">
-      <c r="B151" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" s="39" t="s">
-        <v>168</v>
+      <c r="B151" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
@@ -9615,10 +9618,10 @@
       <c r="M151" s="10"/>
     </row>
     <row r="152" spans="2:13">
-      <c r="B152" s="35"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="39" t="s">
-        <v>195</v>
+      <c r="B152" s="43"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
@@ -9631,10 +9634,10 @@
       <c r="M152" s="10"/>
     </row>
     <row r="153" spans="2:13">
-      <c r="B153" s="35"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="39" t="s">
-        <v>196</v>
+      <c r="B153" s="43"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
@@ -9647,10 +9650,10 @@
       <c r="M153" s="10"/>
     </row>
     <row r="154" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B154" s="20"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="25" t="s">
-        <v>197</v>
+      <c r="B154" s="44"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -9663,11 +9666,11 @@
       <c r="M154" s="10"/>
     </row>
     <row r="155" spans="2:13">
-      <c r="B155" s="48"/>
-      <c r="C155" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D155" s="28"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D155" s="56"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
@@ -9679,11 +9682,11 @@
       <c r="M155" s="10"/>
     </row>
     <row r="156" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B156" s="50"/>
-      <c r="C156" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" s="34"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156" s="57"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
@@ -9724,7 +9727,7 @@
     </row>
     <row r="159" spans="2:13" ht="24" thickBot="1">
       <c r="B159" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -9740,13 +9743,13 @@
     </row>
     <row r="160" spans="2:13" ht="15.75" thickBot="1">
       <c r="B160" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="D160" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -9759,14 +9762,14 @@
       <c r="M160" s="10"/>
     </row>
     <row r="161" spans="2:13">
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C161" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D161" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D161" s="39" t="s">
-        <v>201</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -9779,10 +9782,10 @@
       <c r="M161" s="10"/>
     </row>
     <row r="162" spans="2:13">
-      <c r="B162" s="35"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="39" t="s">
-        <v>202</v>
+      <c r="B162" s="43"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
@@ -9795,10 +9798,10 @@
       <c r="M162" s="10"/>
     </row>
     <row r="163" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B163" s="20"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="25" t="s">
-        <v>203</v>
+      <c r="B163" s="44"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
@@ -9811,13 +9814,13 @@
       <c r="M163" s="10"/>
     </row>
     <row r="164" spans="2:13">
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C164" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D164" s="28"/>
+      <c r="D164" s="56"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
@@ -9829,11 +9832,11 @@
       <c r="M164" s="10"/>
     </row>
     <row r="165" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B165" s="32"/>
-      <c r="C165" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D165" s="34"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D165" s="57"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
@@ -9860,7 +9863,7 @@
     </row>
     <row r="167" spans="2:13">
       <c r="B167" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -9875,7 +9878,7 @@
       <c r="M167" s="10"/>
     </row>
     <row r="168" spans="2:13" ht="15.75">
-      <c r="B168" s="22"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
@@ -9889,11 +9892,11 @@
       <c r="M168" s="10"/>
     </row>
     <row r="169" spans="2:13">
-      <c r="B169" s="59">
+      <c r="B169" s="38">
         <v>1</v>
       </c>
-      <c r="C169" s="23" t="s">
-        <v>206</v>
+      <c r="C169" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
@@ -9907,11 +9910,11 @@
       <c r="M169" s="10"/>
     </row>
     <row r="170" spans="2:13">
-      <c r="B170" s="59">
+      <c r="B170" s="38">
         <v>2</v>
       </c>
-      <c r="C170" s="23" t="s">
-        <v>106</v>
+      <c r="C170" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
@@ -9925,11 +9928,11 @@
       <c r="M170" s="10"/>
     </row>
     <row r="171" spans="2:13">
-      <c r="B171" s="59">
+      <c r="B171" s="38">
         <v>3</v>
       </c>
-      <c r="C171" s="23" t="s">
-        <v>207</v>
+      <c r="C171" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
@@ -9943,11 +9946,11 @@
       <c r="M171" s="10"/>
     </row>
     <row r="172" spans="2:13">
-      <c r="B172" s="59">
+      <c r="B172" s="38">
         <v>4</v>
       </c>
-      <c r="C172" s="24" t="s">
-        <v>208</v>
+      <c r="C172" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
@@ -9961,11 +9964,11 @@
       <c r="M172" s="10"/>
     </row>
     <row r="173" spans="2:13">
-      <c r="B173" s="59">
+      <c r="B173" s="38">
         <v>5</v>
       </c>
-      <c r="C173" s="23" t="s">
-        <v>106</v>
+      <c r="C173" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
@@ -9980,7 +9983,7 @@
     </row>
     <row r="174" spans="2:13" ht="24" thickBot="1">
       <c r="B174" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -9996,13 +9999,13 @@
     </row>
     <row r="175" spans="2:13" ht="15.75" thickBot="1">
       <c r="B175" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="D175" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D175" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -10015,14 +10018,14 @@
       <c r="M175" s="10"/>
     </row>
     <row r="176" spans="2:13">
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D176" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="C176" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D176" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
@@ -10035,10 +10038,10 @@
       <c r="M176" s="10"/>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="35"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="39" t="s">
-        <v>212</v>
+      <c r="B177" s="43"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
@@ -10051,10 +10054,10 @@
       <c r="M177" s="10"/>
     </row>
     <row r="178" spans="2:13">
-      <c r="B178" s="35"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="39" t="s">
-        <v>213</v>
+      <c r="B178" s="43"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
@@ -10067,10 +10070,10 @@
       <c r="M178" s="10"/>
     </row>
     <row r="179" spans="2:13">
-      <c r="B179" s="35"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="39" t="s">
-        <v>214</v>
+      <c r="B179" s="43"/>
+      <c r="C179" s="52"/>
+      <c r="D179" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
@@ -10083,10 +10086,10 @@
       <c r="M179" s="10"/>
     </row>
     <row r="180" spans="2:13">
-      <c r="B180" s="35"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="39" t="s">
-        <v>215</v>
+      <c r="B180" s="43"/>
+      <c r="C180" s="52"/>
+      <c r="D180" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
@@ -10099,10 +10102,10 @@
       <c r="M180" s="10"/>
     </row>
     <row r="181" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B181" s="20"/>
-      <c r="C181" s="41"/>
-      <c r="D181" s="25" t="s">
-        <v>216</v>
+      <c r="B181" s="44"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
@@ -10115,11 +10118,11 @@
       <c r="M181" s="10"/>
     </row>
     <row r="182" spans="2:13">
-      <c r="B182" s="48"/>
-      <c r="C182" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D182" s="28"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D182" s="56"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
@@ -10131,11 +10134,11 @@
       <c r="M182" s="10"/>
     </row>
     <row r="183" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B183" s="50"/>
-      <c r="C183" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D183" s="34"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D183" s="57"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
@@ -10176,7 +10179,7 @@
     </row>
     <row r="186" spans="2:13" ht="24" thickBot="1">
       <c r="B186" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -10192,13 +10195,13 @@
     </row>
     <row r="187" spans="2:13" ht="15.75" thickBot="1">
       <c r="B187" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="D187" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D187" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
@@ -10211,14 +10214,14 @@
       <c r="M187" s="10"/>
     </row>
     <row r="188" spans="2:13">
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C188" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D188" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="C188" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D188" s="39" t="s">
-        <v>220</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
@@ -10231,10 +10234,10 @@
       <c r="M188" s="10"/>
     </row>
     <row r="189" spans="2:13">
-      <c r="B189" s="35"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="39" t="s">
-        <v>221</v>
+      <c r="B189" s="43"/>
+      <c r="C189" s="52"/>
+      <c r="D189" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
@@ -10247,10 +10250,10 @@
       <c r="M189" s="10"/>
     </row>
     <row r="190" spans="2:13">
-      <c r="B190" s="35"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="39" t="s">
-        <v>222</v>
+      <c r="B190" s="43"/>
+      <c r="C190" s="52"/>
+      <c r="D190" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
@@ -10263,10 +10266,10 @@
       <c r="M190" s="10"/>
     </row>
     <row r="191" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B191" s="20"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="25" t="s">
-        <v>223</v>
+      <c r="B191" s="44"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
@@ -10294,7 +10297,7 @@
     </row>
     <row r="193" spans="2:13">
       <c r="B193" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -10309,7 +10312,7 @@
       <c r="M193" s="10"/>
     </row>
     <row r="194" spans="2:13" ht="15.75">
-      <c r="B194" s="22"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
@@ -10323,11 +10326,11 @@
       <c r="M194" s="10"/>
     </row>
     <row r="195" spans="2:13">
-      <c r="B195" s="59">
+      <c r="B195" s="38">
         <v>1</v>
       </c>
-      <c r="C195" s="51" t="s">
-        <v>224</v>
+      <c r="C195" s="33" t="s">
+        <v>223</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
@@ -10341,11 +10344,11 @@
       <c r="M195" s="10"/>
     </row>
     <row r="196" spans="2:13">
-      <c r="B196" s="59">
+      <c r="B196" s="38">
         <v>2</v>
       </c>
-      <c r="C196" s="23" t="s">
-        <v>225</v>
+      <c r="C196" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
@@ -10359,11 +10362,11 @@
       <c r="M196" s="10"/>
     </row>
     <row r="197" spans="2:13">
-      <c r="B197" s="59">
+      <c r="B197" s="38">
         <v>3</v>
       </c>
-      <c r="C197" s="23" t="s">
-        <v>106</v>
+      <c r="C197" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
@@ -10392,7 +10395,7 @@
     </row>
     <row r="199" spans="2:13" ht="24" thickBot="1">
       <c r="B199" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
@@ -10408,13 +10411,13 @@
     </row>
     <row r="200" spans="2:13" ht="15.75" thickBot="1">
       <c r="B200" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="D200" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D200" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
@@ -10427,14 +10430,14 @@
       <c r="M200" s="10"/>
     </row>
     <row r="201" spans="2:13">
-      <c r="B201" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C201" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D201" s="39" t="s">
-        <v>229</v>
+      <c r="B201" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C201" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
@@ -10447,12 +10450,12 @@
       <c r="M201" s="10"/>
     </row>
     <row r="202" spans="2:13">
-      <c r="B202" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="C202" s="40"/>
-      <c r="D202" s="39" t="s">
-        <v>230</v>
+      <c r="B202" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C202" s="52"/>
+      <c r="D202" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
@@ -10465,10 +10468,10 @@
       <c r="M202" s="10"/>
     </row>
     <row r="203" spans="2:13">
-      <c r="B203" s="44"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="39" t="s">
-        <v>231</v>
+      <c r="B203" s="29"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
@@ -10481,10 +10484,10 @@
       <c r="M203" s="10"/>
     </row>
     <row r="204" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B204" s="46"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="25" t="s">
-        <v>232</v>
+      <c r="B204" s="31"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
@@ -10497,13 +10500,13 @@
       <c r="M204" s="10"/>
     </row>
     <row r="205" spans="2:13">
-      <c r="B205" s="26" t="s">
+      <c r="B205" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C205" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D205" s="28"/>
+      <c r="D205" s="56"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
@@ -10515,11 +10518,11 @@
       <c r="M205" s="10"/>
     </row>
     <row r="206" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B206" s="32"/>
-      <c r="C206" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D206" s="34"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D206" s="57"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="208" spans="2:13">
       <c r="B208" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -10561,7 +10564,7 @@
       <c r="M208" s="10"/>
     </row>
     <row r="209" spans="2:13" ht="15.75">
-      <c r="B209" s="22"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
       <c r="E209" s="10"/>
@@ -10575,11 +10578,11 @@
       <c r="M209" s="10"/>
     </row>
     <row r="210" spans="2:13">
-      <c r="B210" s="59">
+      <c r="B210" s="38">
         <v>1</v>
       </c>
-      <c r="C210" s="23" t="s">
-        <v>235</v>
+      <c r="C210" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="D210" s="10"/>
       <c r="E210" s="10"/>
@@ -10593,11 +10596,11 @@
       <c r="M210" s="10"/>
     </row>
     <row r="211" spans="2:13">
-      <c r="B211" s="59">
+      <c r="B211" s="38">
         <v>2</v>
       </c>
-      <c r="C211" s="23" t="s">
-        <v>134</v>
+      <c r="C211" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D211" s="10"/>
       <c r="E211" s="10"/>
@@ -10611,11 +10614,11 @@
       <c r="M211" s="10"/>
     </row>
     <row r="212" spans="2:13">
-      <c r="B212" s="59">
+      <c r="B212" s="38">
         <v>3</v>
       </c>
-      <c r="C212" s="23" t="s">
-        <v>236</v>
+      <c r="C212" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="D212" s="10"/>
       <c r="E212" s="10"/>
@@ -10629,11 +10632,11 @@
       <c r="M212" s="10"/>
     </row>
     <row r="213" spans="2:13">
-      <c r="B213" s="59">
+      <c r="B213" s="38">
         <v>4</v>
       </c>
-      <c r="C213" s="24" t="s">
-        <v>237</v>
+      <c r="C213" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="D213" s="10"/>
       <c r="E213" s="10"/>
@@ -10662,7 +10665,7 @@
     </row>
     <row r="215" spans="2:13" ht="24" thickBot="1">
       <c r="B215" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -10678,13 +10681,13 @@
     </row>
     <row r="216" spans="2:13" ht="15.75" thickBot="1">
       <c r="B216" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="D216" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D216" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
@@ -10697,14 +10700,14 @@
       <c r="M216" s="10"/>
     </row>
     <row r="217" spans="2:13">
-      <c r="B217" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C217" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D217" s="39" t="s">
-        <v>241</v>
+      <c r="B217" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C217" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
@@ -10717,12 +10720,12 @@
       <c r="M217" s="10"/>
     </row>
     <row r="218" spans="2:13">
-      <c r="B218" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C218" s="40"/>
-      <c r="D218" s="39" t="s">
-        <v>242</v>
+      <c r="B218" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C218" s="52"/>
+      <c r="D218" s="26" t="s">
+        <v>241</v>
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
@@ -10735,10 +10738,10 @@
       <c r="M218" s="10"/>
     </row>
     <row r="219" spans="2:13">
-      <c r="B219" s="44"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="39" t="s">
-        <v>243</v>
+      <c r="B219" s="29"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
@@ -10751,10 +10754,10 @@
       <c r="M219" s="10"/>
     </row>
     <row r="220" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B220" s="46"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="25" t="s">
-        <v>244</v>
+      <c r="B220" s="31"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
@@ -10767,13 +10770,13 @@
       <c r="M220" s="10"/>
     </row>
     <row r="221" spans="2:13">
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="C221" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C221" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D221" s="28"/>
+      <c r="D221" s="56"/>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="10"/>
@@ -10785,11 +10788,11 @@
       <c r="M221" s="10"/>
     </row>
     <row r="222" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B222" s="32"/>
-      <c r="C222" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D222" s="34"/>
+      <c r="B222" s="55"/>
+      <c r="C222" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D222" s="57"/>
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="225" spans="2:13" ht="24" thickBot="1">
       <c r="B225" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -10846,13 +10849,13 @@
     </row>
     <row r="226" spans="2:13" ht="15.75" thickBot="1">
       <c r="B226" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C226" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="D226" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
@@ -10865,14 +10868,14 @@
       <c r="M226" s="10"/>
     </row>
     <row r="227" spans="2:13">
-      <c r="B227" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C227" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D227" s="39" t="s">
-        <v>211</v>
+      <c r="B227" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D227" s="26" t="s">
+        <v>210</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
@@ -10885,12 +10888,12 @@
       <c r="M227" s="10"/>
     </row>
     <row r="228" spans="2:13">
-      <c r="B228" s="35"/>
-      <c r="C228" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D228" s="39" t="s">
-        <v>249</v>
+      <c r="B228" s="43"/>
+      <c r="C228" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D228" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
@@ -10903,12 +10906,12 @@
       <c r="M228" s="10"/>
     </row>
     <row r="229" spans="2:13">
-      <c r="B229" s="35"/>
-      <c r="C229" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D229" s="39" t="s">
-        <v>250</v>
+      <c r="B229" s="43"/>
+      <c r="C229" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D229" s="26" t="s">
+        <v>249</v>
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
@@ -10921,10 +10924,10 @@
       <c r="M229" s="10"/>
     </row>
     <row r="230" spans="2:13">
-      <c r="B230" s="35"/>
-      <c r="C230" s="45"/>
-      <c r="D230" s="39" t="s">
-        <v>251</v>
+      <c r="B230" s="43"/>
+      <c r="C230" s="30"/>
+      <c r="D230" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
@@ -10937,10 +10940,10 @@
       <c r="M230" s="10"/>
     </row>
     <row r="231" spans="2:13">
-      <c r="B231" s="35"/>
-      <c r="C231" s="45"/>
-      <c r="D231" s="39" t="s">
-        <v>252</v>
+      <c r="B231" s="43"/>
+      <c r="C231" s="30"/>
+      <c r="D231" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
@@ -10953,10 +10956,10 @@
       <c r="M231" s="10"/>
     </row>
     <row r="232" spans="2:13">
-      <c r="B232" s="35"/>
-      <c r="C232" s="45"/>
-      <c r="D232" s="39" t="s">
-        <v>253</v>
+      <c r="B232" s="43"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
@@ -10969,10 +10972,10 @@
       <c r="M232" s="10"/>
     </row>
     <row r="233" spans="2:13">
-      <c r="B233" s="35"/>
-      <c r="C233" s="45"/>
-      <c r="D233" s="39" t="s">
-        <v>214</v>
+      <c r="B233" s="43"/>
+      <c r="C233" s="30"/>
+      <c r="D233" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
@@ -10985,10 +10988,10 @@
       <c r="M233" s="10"/>
     </row>
     <row r="234" spans="2:13">
-      <c r="B234" s="35"/>
-      <c r="C234" s="45"/>
-      <c r="D234" s="39" t="s">
-        <v>254</v>
+      <c r="B234" s="43"/>
+      <c r="C234" s="30"/>
+      <c r="D234" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
@@ -11001,10 +11004,10 @@
       <c r="M234" s="10"/>
     </row>
     <row r="235" spans="2:13">
-      <c r="B235" s="35"/>
-      <c r="C235" s="45"/>
-      <c r="D235" s="39" t="s">
-        <v>255</v>
+      <c r="B235" s="43"/>
+      <c r="C235" s="30"/>
+      <c r="D235" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
@@ -11017,10 +11020,10 @@
       <c r="M235" s="10"/>
     </row>
     <row r="236" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B236" s="20"/>
-      <c r="C236" s="47"/>
-      <c r="D236" s="25" t="s">
-        <v>256</v>
+      <c r="B236" s="44"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
@@ -11048,7 +11051,7 @@
     </row>
     <row r="238" spans="2:13" ht="24" thickBot="1">
       <c r="B238" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -11064,13 +11067,13 @@
     </row>
     <row r="239" spans="2:13" ht="15.75" thickBot="1">
       <c r="B239" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C239" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="D239" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D239" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
@@ -11083,14 +11086,14 @@
       <c r="M239" s="10"/>
     </row>
     <row r="240" spans="2:13">
-      <c r="B240" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C240" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D240" s="39" t="s">
-        <v>168</v>
+      <c r="B240" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C240" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D240" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
@@ -11103,10 +11106,10 @@
       <c r="M240" s="10"/>
     </row>
     <row r="241" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B241" s="20"/>
-      <c r="C241" s="41"/>
-      <c r="D241" s="25" t="s">
-        <v>259</v>
+      <c r="B241" s="44"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
@@ -11134,7 +11137,7 @@
     </row>
     <row r="243" spans="2:13">
       <c r="B243" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -11149,7 +11152,7 @@
       <c r="M243" s="10"/>
     </row>
     <row r="244" spans="2:13" ht="15.75">
-      <c r="B244" s="22"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
       <c r="E244" s="10"/>
@@ -11163,11 +11166,11 @@
       <c r="M244" s="10"/>
     </row>
     <row r="245" spans="2:13">
-      <c r="B245" s="59">
+      <c r="B245" s="38">
         <v>1</v>
       </c>
-      <c r="C245" s="23" t="s">
-        <v>260</v>
+      <c r="C245" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="D245" s="10"/>
       <c r="E245" s="10"/>
@@ -11181,11 +11184,11 @@
       <c r="M245" s="10"/>
     </row>
     <row r="246" spans="2:13">
-      <c r="B246" s="59">
+      <c r="B246" s="38">
         <v>2</v>
       </c>
-      <c r="C246" s="23" t="s">
-        <v>106</v>
+      <c r="C246" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D246" s="10"/>
       <c r="E246" s="10"/>
@@ -11214,7 +11217,7 @@
     </row>
     <row r="248" spans="2:13" ht="24" thickBot="1">
       <c r="B248" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -11230,13 +11233,13 @@
     </row>
     <row r="249" spans="2:13" ht="15.75" thickBot="1">
       <c r="B249" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C249" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="D249" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
@@ -11250,12 +11253,12 @@
     </row>
     <row r="250" spans="2:13" ht="15.75" thickBot="1">
       <c r="B250" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D250" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="D250" s="21"/>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
@@ -11296,7 +11299,7 @@
     </row>
     <row r="253" spans="2:13" ht="24" thickBot="1">
       <c r="B253" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -11312,13 +11315,13 @@
     </row>
     <row r="254" spans="2:13" ht="15.75" thickBot="1">
       <c r="B254" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C254" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="D254" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
@@ -11331,14 +11334,14 @@
       <c r="M254" s="10"/>
     </row>
     <row r="255" spans="2:13">
-      <c r="B255" s="17" t="s">
+      <c r="B255" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D255" s="45" t="s">
         <v>264</v>
-      </c>
-      <c r="C255" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
@@ -11351,11 +11354,11 @@
       <c r="M255" s="10"/>
     </row>
     <row r="256" spans="2:13">
-      <c r="B256" s="35"/>
-      <c r="C256" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D256" s="36"/>
+      <c r="B256" s="43"/>
+      <c r="C256" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D256" s="46"/>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
@@ -11367,11 +11370,11 @@
       <c r="M256" s="10"/>
     </row>
     <row r="257" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B257" s="20"/>
+      <c r="B257" s="44"/>
       <c r="C257" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D257" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="D257" s="47"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
@@ -11412,7 +11415,7 @@
     </row>
     <row r="260" spans="2:13" ht="24" thickBot="1">
       <c r="B260" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
@@ -11428,13 +11431,13 @@
     </row>
     <row r="261" spans="2:13" ht="15.75" thickBot="1">
       <c r="B261" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="D261" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
@@ -11447,14 +11450,14 @@
       <c r="M261" s="10"/>
     </row>
     <row r="262" spans="2:13">
-      <c r="B262" s="17" t="s">
+      <c r="B262" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C262" s="18" t="s">
+      <c r="D262" s="45" t="s">
         <v>268</v>
-      </c>
-      <c r="D262" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
@@ -11467,11 +11470,11 @@
       <c r="M262" s="10"/>
     </row>
     <row r="263" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B263" s="20"/>
+      <c r="B263" s="44"/>
       <c r="C263" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D263" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D263" s="47"/>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
@@ -11512,7 +11515,7 @@
     </row>
     <row r="266" spans="2:13" ht="24" thickBot="1">
       <c r="B266" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -11528,13 +11531,13 @@
     </row>
     <row r="267" spans="2:13" ht="15.75" thickBot="1">
       <c r="B267" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
@@ -11547,14 +11550,14 @@
       <c r="M267" s="10"/>
     </row>
     <row r="268" spans="2:13">
-      <c r="B268" s="17" t="s">
+      <c r="B268" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="D268" s="45" t="s">
         <v>273</v>
-      </c>
-      <c r="D268" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
@@ -11567,11 +11570,11 @@
       <c r="M268" s="10"/>
     </row>
     <row r="269" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B269" s="20"/>
+      <c r="B269" s="44"/>
       <c r="C269" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D269" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D269" s="47"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
@@ -11612,7 +11615,7 @@
     </row>
     <row r="272" spans="2:13" ht="24" thickBot="1">
       <c r="B272" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
@@ -11628,13 +11631,13 @@
     </row>
     <row r="273" spans="2:13" ht="15.75" thickBot="1">
       <c r="B273" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C273" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C273" s="12" t="s">
+      <c r="D273" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D273" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
@@ -11647,14 +11650,14 @@
       <c r="M273" s="10"/>
     </row>
     <row r="274" spans="2:13">
-      <c r="B274" s="17" t="s">
+      <c r="B274" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C274" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="D274" s="39" t="s">
-        <v>168</v>
+      <c r="D274" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
@@ -11667,12 +11670,12 @@
       <c r="M274" s="10"/>
     </row>
     <row r="275" spans="2:13">
-      <c r="B275" s="35"/>
-      <c r="C275" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D275" s="39" t="s">
-        <v>278</v>
+      <c r="B275" s="43"/>
+      <c r="C275" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D275" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
@@ -11685,10 +11688,10 @@
       <c r="M275" s="10"/>
     </row>
     <row r="276" spans="2:13">
-      <c r="B276" s="35"/>
-      <c r="C276" s="45"/>
-      <c r="D276" s="39" t="s">
-        <v>279</v>
+      <c r="B276" s="43"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="26" t="s">
+        <v>278</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
@@ -11701,10 +11704,10 @@
       <c r="M276" s="10"/>
     </row>
     <row r="277" spans="2:13">
-      <c r="B277" s="35"/>
-      <c r="C277" s="45"/>
-      <c r="D277" s="39" t="s">
-        <v>280</v>
+      <c r="B277" s="43"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
@@ -11717,10 +11720,10 @@
       <c r="M277" s="10"/>
     </row>
     <row r="278" spans="2:13">
-      <c r="B278" s="35"/>
-      <c r="C278" s="45"/>
-      <c r="D278" s="39" t="s">
-        <v>281</v>
+      <c r="B278" s="43"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="26" t="s">
+        <v>280</v>
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
@@ -11733,10 +11736,10 @@
       <c r="M278" s="10"/>
     </row>
     <row r="279" spans="2:13">
-      <c r="B279" s="35"/>
-      <c r="C279" s="45"/>
-      <c r="D279" s="39" t="s">
-        <v>282</v>
+      <c r="B279" s="43"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
@@ -11749,10 +11752,10 @@
       <c r="M279" s="10"/>
     </row>
     <row r="280" spans="2:13">
-      <c r="B280" s="35"/>
-      <c r="C280" s="45"/>
-      <c r="D280" s="39" t="s">
-        <v>283</v>
+      <c r="B280" s="43"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="26" t="s">
+        <v>282</v>
       </c>
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
@@ -11765,10 +11768,10 @@
       <c r="M280" s="10"/>
     </row>
     <row r="281" spans="2:13">
-      <c r="B281" s="35"/>
-      <c r="C281" s="45"/>
-      <c r="D281" s="39" t="s">
-        <v>284</v>
+      <c r="B281" s="43"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="26" t="s">
+        <v>283</v>
       </c>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
@@ -11781,10 +11784,10 @@
       <c r="M281" s="10"/>
     </row>
     <row r="282" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B282" s="20"/>
-      <c r="C282" s="47"/>
-      <c r="D282" s="25" t="s">
-        <v>285</v>
+      <c r="B282" s="44"/>
+      <c r="C282" s="32"/>
+      <c r="D282" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
@@ -11812,7 +11815,7 @@
     </row>
     <row r="284" spans="2:13" ht="24" thickBot="1">
       <c r="B284" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
@@ -11828,13 +11831,13 @@
     </row>
     <row r="285" spans="2:13" ht="15.75" thickBot="1">
       <c r="B285" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C285" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C285" s="12" t="s">
+      <c r="D285" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D285" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
@@ -11847,14 +11850,14 @@
       <c r="M285" s="10"/>
     </row>
     <row r="286" spans="2:13">
-      <c r="B286" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="C286" s="37" t="s">
+      <c r="B286" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D286" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="D286" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
@@ -11867,11 +11870,11 @@
       <c r="M286" s="10"/>
     </row>
     <row r="287" spans="2:13">
-      <c r="B287" s="53"/>
-      <c r="C287" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D287" s="36"/>
+      <c r="B287" s="49"/>
+      <c r="C287" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D287" s="46"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
@@ -11883,11 +11886,11 @@
       <c r="M287" s="10"/>
     </row>
     <row r="288" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B288" s="54"/>
-      <c r="C288" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="D288" s="21"/>
+      <c r="B288" s="50"/>
+      <c r="C288" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D288" s="47"/>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10"/>
@@ -11928,7 +11931,7 @@
     </row>
     <row r="291" spans="2:13" ht="24" thickBot="1">
       <c r="B291" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
@@ -11944,13 +11947,13 @@
     </row>
     <row r="292" spans="2:13" ht="15.75" thickBot="1">
       <c r="B292" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C292" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C292" s="12" t="s">
+      <c r="D292" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D292" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
@@ -11963,14 +11966,14 @@
       <c r="M292" s="10"/>
     </row>
     <row r="293" spans="2:13">
-      <c r="B293" s="17" t="s">
+      <c r="B293" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C293" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C293" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D293" s="39" t="s">
-        <v>292</v>
+      <c r="D293" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
@@ -11983,12 +11986,12 @@
       <c r="M293" s="10"/>
     </row>
     <row r="294" spans="2:13">
-      <c r="B294" s="35"/>
-      <c r="C294" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D294" s="39" t="s">
-        <v>293</v>
+      <c r="B294" s="43"/>
+      <c r="C294" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D294" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
@@ -12001,12 +12004,12 @@
       <c r="M294" s="10"/>
     </row>
     <row r="295" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B295" s="20"/>
+      <c r="B295" s="44"/>
       <c r="C295" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>294</v>
+        <v>105</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
@@ -12034,7 +12037,7 @@
     </row>
     <row r="297" spans="2:13">
       <c r="B297" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -12049,7 +12052,7 @@
       <c r="M297" s="10"/>
     </row>
     <row r="298" spans="2:13" ht="15.75">
-      <c r="B298" s="22"/>
+      <c r="B298" s="18"/>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
       <c r="E298" s="10"/>
@@ -12063,11 +12066,11 @@
       <c r="M298" s="10"/>
     </row>
     <row r="299" spans="2:13">
-      <c r="B299" s="59">
+      <c r="B299" s="38">
         <v>1</v>
       </c>
-      <c r="C299" s="23" t="s">
-        <v>295</v>
+      <c r="C299" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="D299" s="10"/>
       <c r="E299" s="10"/>
@@ -12081,11 +12084,11 @@
       <c r="M299" s="10"/>
     </row>
     <row r="300" spans="2:13">
-      <c r="B300" s="59">
+      <c r="B300" s="38">
         <v>2</v>
       </c>
-      <c r="C300" s="23" t="s">
-        <v>106</v>
+      <c r="C300" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D300" s="10"/>
       <c r="E300" s="10"/>
@@ -12099,11 +12102,11 @@
       <c r="M300" s="10"/>
     </row>
     <row r="301" spans="2:13">
-      <c r="B301" s="59">
+      <c r="B301" s="38">
         <v>3</v>
       </c>
-      <c r="C301" s="23" t="s">
-        <v>296</v>
+      <c r="C301" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="D301" s="10"/>
       <c r="E301" s="10"/>
@@ -12117,11 +12120,11 @@
       <c r="M301" s="10"/>
     </row>
     <row r="302" spans="2:13">
-      <c r="B302" s="59">
+      <c r="B302" s="38">
         <v>4</v>
       </c>
-      <c r="C302" s="23" t="s">
-        <v>134</v>
+      <c r="C302" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D302" s="10"/>
       <c r="E302" s="10"/>
@@ -12135,11 +12138,11 @@
       <c r="M302" s="10"/>
     </row>
     <row r="303" spans="2:13">
-      <c r="B303" s="59">
+      <c r="B303" s="38">
         <v>5</v>
       </c>
-      <c r="C303" s="23" t="s">
-        <v>297</v>
+      <c r="C303" s="19" t="s">
+        <v>296</v>
       </c>
       <c r="D303" s="10"/>
       <c r="E303" s="10"/>
@@ -12153,11 +12156,11 @@
       <c r="M303" s="10"/>
     </row>
     <row r="304" spans="2:13">
-      <c r="B304" s="59">
+      <c r="B304" s="38">
         <v>6</v>
       </c>
-      <c r="C304" s="23" t="s">
-        <v>175</v>
+      <c r="C304" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D304" s="10"/>
       <c r="E304" s="10"/>
@@ -12171,11 +12174,11 @@
       <c r="M304" s="10"/>
     </row>
     <row r="305" spans="2:13">
-      <c r="B305" s="59">
+      <c r="B305" s="38">
         <v>7</v>
       </c>
-      <c r="C305" s="23" t="s">
-        <v>298</v>
+      <c r="C305" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="D305" s="10"/>
       <c r="E305" s="10"/>
@@ -12189,11 +12192,11 @@
       <c r="M305" s="10"/>
     </row>
     <row r="306" spans="2:13">
-      <c r="B306" s="59">
+      <c r="B306" s="38">
         <v>8</v>
       </c>
-      <c r="C306" s="24" t="s">
-        <v>299</v>
+      <c r="C306" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="D306" s="10"/>
       <c r="E306" s="10"/>
@@ -12207,11 +12210,11 @@
       <c r="M306" s="10"/>
     </row>
     <row r="307" spans="2:13">
-      <c r="B307" s="59">
+      <c r="B307" s="38">
         <v>9</v>
       </c>
-      <c r="C307" s="24" t="s">
-        <v>300</v>
+      <c r="C307" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="D307" s="10"/>
       <c r="E307" s="10"/>
@@ -12225,11 +12228,11 @@
       <c r="M307" s="10"/>
     </row>
     <row r="308" spans="2:13">
-      <c r="B308" s="59">
+      <c r="B308" s="38">
         <v>10</v>
       </c>
-      <c r="C308" s="24" t="s">
-        <v>301</v>
+      <c r="C308" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="D308" s="10"/>
       <c r="E308" s="10"/>
@@ -12243,11 +12246,11 @@
       <c r="M308" s="10"/>
     </row>
     <row r="309" spans="2:13">
-      <c r="B309" s="59">
+      <c r="B309" s="38">
         <v>11</v>
       </c>
-      <c r="C309" s="24" t="s">
-        <v>300</v>
+      <c r="C309" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="D309" s="10"/>
       <c r="E309" s="10"/>
@@ -12261,11 +12264,11 @@
       <c r="M309" s="10"/>
     </row>
     <row r="310" spans="2:13">
-      <c r="B310" s="59">
+      <c r="B310" s="38">
         <v>12</v>
       </c>
-      <c r="C310" s="24" t="s">
-        <v>302</v>
+      <c r="C310" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="D310" s="10"/>
       <c r="E310" s="10"/>
@@ -12279,11 +12282,11 @@
       <c r="M310" s="10"/>
     </row>
     <row r="311" spans="2:13">
-      <c r="B311" s="59">
+      <c r="B311" s="38">
         <v>13</v>
       </c>
-      <c r="C311" s="24" t="s">
-        <v>303</v>
+      <c r="C311" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="D311" s="10"/>
       <c r="E311" s="10"/>
@@ -12297,11 +12300,11 @@
       <c r="M311" s="10"/>
     </row>
     <row r="312" spans="2:13">
-      <c r="B312" s="59">
+      <c r="B312" s="38">
         <v>14</v>
       </c>
-      <c r="C312" s="24" t="s">
-        <v>304</v>
+      <c r="C312" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="D312" s="10"/>
       <c r="E312" s="10"/>
@@ -12315,11 +12318,11 @@
       <c r="M312" s="10"/>
     </row>
     <row r="313" spans="2:13">
-      <c r="B313" s="59">
+      <c r="B313" s="38">
         <v>15</v>
       </c>
-      <c r="C313" s="24" t="s">
-        <v>303</v>
+      <c r="C313" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="10"/>
@@ -12333,11 +12336,11 @@
       <c r="M313" s="10"/>
     </row>
     <row r="314" spans="2:13">
-      <c r="B314" s="59">
+      <c r="B314" s="38">
         <v>16</v>
       </c>
-      <c r="C314" s="24" t="s">
-        <v>305</v>
+      <c r="C314" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="D314" s="10"/>
       <c r="E314" s="10"/>
@@ -12366,7 +12369,7 @@
     </row>
     <row r="316" spans="2:13" ht="24" thickBot="1">
       <c r="B316" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -12382,13 +12385,13 @@
     </row>
     <row r="317" spans="2:13" ht="15.75" thickBot="1">
       <c r="B317" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C317" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C317" s="12" t="s">
+      <c r="D317" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
@@ -12402,13 +12405,13 @@
     </row>
     <row r="318" spans="2:13" ht="15.75" thickBot="1">
       <c r="B318" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C318" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D318" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="D318" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
@@ -12450,7 +12453,7 @@
     </row>
     <row r="321" spans="2:13" ht="24" thickBot="1">
       <c r="B321" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -12466,13 +12469,13 @@
     </row>
     <row r="322" spans="2:13" ht="15.75" thickBot="1">
       <c r="B322" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C322" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C322" s="12" t="s">
+      <c r="D322" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D322" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
@@ -12485,14 +12488,14 @@
       <c r="M322" s="10"/>
     </row>
     <row r="323" spans="2:13">
-      <c r="B323" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C323" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D323" s="39" t="s">
-        <v>311</v>
+      <c r="B323" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C323" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D323" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
@@ -12505,12 +12508,12 @@
       <c r="M323" s="10"/>
     </row>
     <row r="324" spans="2:13">
-      <c r="B324" s="35"/>
-      <c r="C324" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D324" s="39" t="s">
-        <v>312</v>
+      <c r="B324" s="43"/>
+      <c r="C324" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D324" s="26" t="s">
+        <v>311</v>
       </c>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
@@ -12523,11 +12526,11 @@
       <c r="M324" s="10"/>
     </row>
     <row r="325" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B325" s="20"/>
+      <c r="B325" s="44"/>
       <c r="C325" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D325" s="56"/>
+        <v>309</v>
+      </c>
+      <c r="D325" s="35"/>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
@@ -12568,7 +12571,7 @@
     </row>
     <row r="328" spans="2:13" ht="24" thickBot="1">
       <c r="B328" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
@@ -12584,13 +12587,13 @@
     </row>
     <row r="329" spans="2:13" ht="15.75" thickBot="1">
       <c r="B329" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C329" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C329" s="12" t="s">
+      <c r="D329" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D329" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
@@ -12603,14 +12606,14 @@
       <c r="M329" s="10"/>
     </row>
     <row r="330" spans="2:13">
-      <c r="B330" s="17" t="s">
+      <c r="B330" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C330" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D330" s="45" t="s">
         <v>314</v>
-      </c>
-      <c r="C330" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D330" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
@@ -12623,11 +12626,11 @@
       <c r="M330" s="10"/>
     </row>
     <row r="331" spans="2:13">
-      <c r="B331" s="35"/>
-      <c r="C331" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D331" s="36"/>
+      <c r="B331" s="43"/>
+      <c r="C331" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D331" s="46"/>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10"/>
@@ -12639,11 +12642,11 @@
       <c r="M331" s="10"/>
     </row>
     <row r="332" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B332" s="20"/>
+      <c r="B332" s="44"/>
       <c r="C332" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D332" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="D332" s="47"/>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
@@ -12670,7 +12673,7 @@
     </row>
     <row r="334" spans="2:13">
       <c r="B334" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C334" s="10"/>
       <c r="D334" s="10"/>
@@ -12685,7 +12688,7 @@
       <c r="M334" s="10"/>
     </row>
     <row r="335" spans="2:13" ht="15.75">
-      <c r="B335" s="22"/>
+      <c r="B335" s="18"/>
       <c r="C335" s="10"/>
       <c r="D335" s="10"/>
       <c r="E335" s="10"/>
@@ -12699,11 +12702,11 @@
       <c r="M335" s="10"/>
     </row>
     <row r="336" spans="2:13">
-      <c r="B336" s="59">
+      <c r="B336" s="38">
         <v>1</v>
       </c>
-      <c r="C336" s="23" t="s">
-        <v>316</v>
+      <c r="C336" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="D336" s="10"/>
       <c r="E336" s="10"/>
@@ -12717,11 +12720,11 @@
       <c r="M336" s="10"/>
     </row>
     <row r="337" spans="2:13">
-      <c r="B337" s="59">
+      <c r="B337" s="38">
         <v>2</v>
       </c>
-      <c r="C337" s="23" t="s">
-        <v>134</v>
+      <c r="C337" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D337" s="10"/>
       <c r="E337" s="10"/>
@@ -12735,11 +12738,11 @@
       <c r="M337" s="10"/>
     </row>
     <row r="338" spans="2:13">
-      <c r="B338" s="59">
+      <c r="B338" s="38">
         <v>3</v>
       </c>
-      <c r="C338" s="23" t="s">
-        <v>317</v>
+      <c r="C338" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="D338" s="10"/>
       <c r="E338" s="10"/>
@@ -12753,11 +12756,11 @@
       <c r="M338" s="10"/>
     </row>
     <row r="339" spans="2:13">
-      <c r="B339" s="59">
+      <c r="B339" s="38">
         <v>4</v>
       </c>
-      <c r="C339" s="23" t="s">
-        <v>106</v>
+      <c r="C339" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D339" s="10"/>
       <c r="E339" s="10"/>
@@ -12772,7 +12775,7 @@
     </row>
     <row r="340" spans="2:13" ht="24" thickBot="1">
       <c r="B340" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -12788,13 +12791,13 @@
     </row>
     <row r="341" spans="2:13" ht="15.75" thickBot="1">
       <c r="B341" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C341" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C341" s="12" t="s">
+      <c r="D341" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D341" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
@@ -12807,14 +12810,14 @@
       <c r="M341" s="10"/>
     </row>
     <row r="342" spans="2:13">
-      <c r="B342" s="17" t="s">
+      <c r="B342" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C342" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C342" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="D342" s="19" t="s">
-        <v>315</v>
+      <c r="D342" s="45" t="s">
+        <v>314</v>
       </c>
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
@@ -12827,11 +12830,11 @@
       <c r="M342" s="10"/>
     </row>
     <row r="343" spans="2:13">
-      <c r="B343" s="35"/>
-      <c r="C343" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D343" s="36"/>
+      <c r="B343" s="43"/>
+      <c r="C343" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D343" s="46"/>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10"/>
@@ -12843,11 +12846,11 @@
       <c r="M343" s="10"/>
     </row>
     <row r="344" spans="2:13">
-      <c r="B344" s="35"/>
-      <c r="C344" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D344" s="36"/>
+      <c r="B344" s="43"/>
+      <c r="C344" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D344" s="46"/>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
@@ -12859,11 +12862,11 @@
       <c r="M344" s="10"/>
     </row>
     <row r="345" spans="2:13">
-      <c r="B345" s="35"/>
-      <c r="C345" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="D345" s="36"/>
+      <c r="B345" s="43"/>
+      <c r="C345" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D345" s="46"/>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="10"/>
@@ -12875,11 +12878,11 @@
       <c r="M345" s="10"/>
     </row>
     <row r="346" spans="2:13">
-      <c r="B346" s="35"/>
-      <c r="C346" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D346" s="36"/>
+      <c r="B346" s="43"/>
+      <c r="C346" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D346" s="46"/>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10"/>
@@ -12891,11 +12894,11 @@
       <c r="M346" s="10"/>
     </row>
     <row r="347" spans="2:13">
-      <c r="B347" s="35"/>
-      <c r="C347" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D347" s="36"/>
+      <c r="B347" s="43"/>
+      <c r="C347" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D347" s="46"/>
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10"/>
@@ -12907,11 +12910,11 @@
       <c r="M347" s="10"/>
     </row>
     <row r="348" spans="2:13">
-      <c r="B348" s="35"/>
-      <c r="C348" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D348" s="36"/>
+      <c r="B348" s="43"/>
+      <c r="C348" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D348" s="46"/>
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10"/>
@@ -12923,11 +12926,11 @@
       <c r="M348" s="10"/>
     </row>
     <row r="349" spans="2:13">
-      <c r="B349" s="35"/>
-      <c r="C349" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D349" s="36"/>
+      <c r="B349" s="43"/>
+      <c r="C349" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D349" s="46"/>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10"/>
@@ -12939,11 +12942,11 @@
       <c r="M349" s="10"/>
     </row>
     <row r="350" spans="2:13">
-      <c r="B350" s="35"/>
-      <c r="C350" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D350" s="36"/>
+      <c r="B350" s="43"/>
+      <c r="C350" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D350" s="46"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10"/>
@@ -12955,11 +12958,11 @@
       <c r="M350" s="10"/>
     </row>
     <row r="351" spans="2:13">
-      <c r="B351" s="35"/>
-      <c r="C351" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D351" s="36"/>
+      <c r="B351" s="43"/>
+      <c r="C351" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D351" s="46"/>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10"/>
@@ -12971,11 +12974,11 @@
       <c r="M351" s="10"/>
     </row>
     <row r="352" spans="2:13">
-      <c r="B352" s="35"/>
-      <c r="C352" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D352" s="36"/>
+      <c r="B352" s="43"/>
+      <c r="C352" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D352" s="46"/>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="10"/>
@@ -12987,11 +12990,11 @@
       <c r="M352" s="10"/>
     </row>
     <row r="353" spans="2:13">
-      <c r="B353" s="35"/>
-      <c r="C353" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D353" s="36"/>
+      <c r="B353" s="43"/>
+      <c r="C353" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D353" s="46"/>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="10"/>
@@ -13003,11 +13006,11 @@
       <c r="M353" s="10"/>
     </row>
     <row r="354" spans="2:13">
-      <c r="B354" s="35"/>
-      <c r="C354" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D354" s="36"/>
+      <c r="B354" s="43"/>
+      <c r="C354" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D354" s="46"/>
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="10"/>
@@ -13019,11 +13022,11 @@
       <c r="M354" s="10"/>
     </row>
     <row r="355" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B355" s="20"/>
+      <c r="B355" s="44"/>
       <c r="C355" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D355" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D355" s="47"/>
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="10"/>
@@ -13064,7 +13067,7 @@
     </row>
     <row r="358" spans="2:13" ht="24" thickBot="1">
       <c r="B358" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
@@ -13080,13 +13083,13 @@
     </row>
     <row r="359" spans="2:13" ht="15.75" thickBot="1">
       <c r="B359" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C359" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C359" s="12" t="s">
+      <c r="D359" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D359" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
@@ -13100,13 +13103,13 @@
     </row>
     <row r="360" spans="2:13" ht="15.75" thickBot="1">
       <c r="B360" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C360" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
@@ -13148,7 +13151,7 @@
     </row>
     <row r="363" spans="2:13" ht="24" thickBot="1">
       <c r="B363" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C363" s="10"/>
       <c r="D363" s="10"/>
@@ -13164,13 +13167,13 @@
     </row>
     <row r="364" spans="2:13" ht="15.75" thickBot="1">
       <c r="B364" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C364" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C364" s="12" t="s">
+      <c r="D364" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D364" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
@@ -13184,13 +13187,13 @@
     </row>
     <row r="365" spans="2:13" ht="15.75" thickBot="1">
       <c r="B365" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D365" s="25" t="s">
-        <v>315</v>
+        <v>105</v>
+      </c>
+      <c r="D365" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
@@ -13263,8 +13266,8 @@
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
       <c r="E370" s="10"/>
-      <c r="F370" s="57" t="s">
-        <v>329</v>
+      <c r="F370" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="G370" s="10"/>
       <c r="H370" s="10"/>
@@ -13280,7 +13283,7 @@
       <c r="D371" s="10"/>
       <c r="E371" s="10"/>
       <c r="F371" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G371" s="10"/>
       <c r="H371" s="10"/>
@@ -13296,7 +13299,7 @@
       <c r="D372" s="10"/>
       <c r="E372" s="10"/>
       <c r="F372" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G372" s="10"/>
       <c r="H372" s="10"/>
@@ -13311,7 +13314,7 @@
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
       <c r="E373" s="10"/>
-      <c r="F373" s="22"/>
+      <c r="F373" s="18"/>
       <c r="G373" s="10"/>
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
@@ -13325,11 +13328,11 @@
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
       <c r="E374" s="10"/>
-      <c r="F374" s="59">
+      <c r="F374" s="38">
         <v>1</v>
       </c>
-      <c r="G374" s="23" t="s">
-        <v>332</v>
+      <c r="G374" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="H374" s="10"/>
       <c r="I374" s="10"/>
@@ -13343,11 +13346,11 @@
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
       <c r="E375" s="10"/>
-      <c r="F375" s="59">
+      <c r="F375" s="38">
         <v>2</v>
       </c>
-      <c r="G375" s="58" t="s">
-        <v>333</v>
+      <c r="G375" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H375" s="10"/>
       <c r="I375" s="10"/>
@@ -13362,7 +13365,7 @@
       <c r="D376" s="10"/>
       <c r="E376" s="10"/>
       <c r="F376" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G376" s="10"/>
       <c r="H376" s="10"/>
@@ -13377,7 +13380,7 @@
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
       <c r="E377" s="10"/>
-      <c r="F377" s="22"/>
+      <c r="F377" s="18"/>
       <c r="G377" s="10"/>
       <c r="H377" s="10"/>
       <c r="I377" s="10"/>
@@ -13391,11 +13394,11 @@
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
       <c r="E378" s="10"/>
-      <c r="F378" s="59">
+      <c r="F378" s="38">
         <v>1</v>
       </c>
-      <c r="G378" s="23" t="s">
-        <v>335</v>
+      <c r="G378" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="H378" s="10"/>
       <c r="I378" s="10"/>
@@ -13409,11 +13412,11 @@
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
       <c r="E379" s="10"/>
-      <c r="F379" s="59">
+      <c r="F379" s="38">
         <v>2</v>
       </c>
-      <c r="G379" s="58" t="s">
-        <v>333</v>
+      <c r="G379" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H379" s="10"/>
       <c r="I379" s="10"/>
@@ -13428,7 +13431,7 @@
       <c r="D380" s="10"/>
       <c r="E380" s="10"/>
       <c r="F380" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G380" s="10"/>
       <c r="H380" s="10"/>
@@ -13443,7 +13446,7 @@
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
       <c r="E381" s="10"/>
-      <c r="F381" s="22"/>
+      <c r="F381" s="18"/>
       <c r="G381" s="10"/>
       <c r="H381" s="10"/>
       <c r="I381" s="10"/>
@@ -13457,11 +13460,11 @@
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
       <c r="E382" s="10"/>
-      <c r="F382" s="59">
+      <c r="F382" s="38">
         <v>1</v>
       </c>
-      <c r="G382" s="23" t="s">
-        <v>337</v>
+      <c r="G382" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="H382" s="10"/>
       <c r="I382" s="10"/>
@@ -13475,11 +13478,11 @@
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
       <c r="E383" s="10"/>
-      <c r="F383" s="59">
+      <c r="F383" s="38">
         <v>2</v>
       </c>
-      <c r="G383" s="58" t="s">
-        <v>333</v>
+      <c r="G383" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H383" s="10"/>
       <c r="I383" s="10"/>
@@ -13494,7 +13497,7 @@
       <c r="D384" s="10"/>
       <c r="E384" s="10"/>
       <c r="F384" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G384" s="10"/>
       <c r="H384" s="10"/>
@@ -13509,7 +13512,7 @@
       <c r="C385" s="10"/>
       <c r="D385" s="10"/>
       <c r="E385" s="10"/>
-      <c r="F385" s="22"/>
+      <c r="F385" s="18"/>
       <c r="G385" s="10"/>
       <c r="H385" s="10"/>
       <c r="I385" s="10"/>
@@ -13523,11 +13526,11 @@
       <c r="C386" s="10"/>
       <c r="D386" s="10"/>
       <c r="E386" s="10"/>
-      <c r="F386" s="59">
+      <c r="F386" s="38">
         <v>1</v>
       </c>
-      <c r="G386" s="23" t="s">
-        <v>339</v>
+      <c r="G386" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="H386" s="10"/>
       <c r="I386" s="10"/>
@@ -13541,11 +13544,11 @@
       <c r="C387" s="10"/>
       <c r="D387" s="10"/>
       <c r="E387" s="10"/>
-      <c r="F387" s="59">
+      <c r="F387" s="38">
         <v>2</v>
       </c>
-      <c r="G387" s="58" t="s">
-        <v>333</v>
+      <c r="G387" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H387" s="10"/>
       <c r="I387" s="10"/>
@@ -13560,7 +13563,7 @@
       <c r="D388" s="10"/>
       <c r="E388" s="10"/>
       <c r="F388" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G388" s="10"/>
       <c r="H388" s="10"/>
@@ -13575,7 +13578,7 @@
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
       <c r="E389" s="10"/>
-      <c r="F389" s="22"/>
+      <c r="F389" s="18"/>
       <c r="G389" s="10"/>
       <c r="H389" s="10"/>
       <c r="I389" s="10"/>
@@ -13589,11 +13592,11 @@
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
       <c r="E390" s="10"/>
-      <c r="F390" s="59">
+      <c r="F390" s="38">
         <v>1</v>
       </c>
-      <c r="G390" s="23" t="s">
-        <v>295</v>
+      <c r="G390" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="H390" s="10"/>
       <c r="I390" s="10"/>
@@ -13607,11 +13610,11 @@
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
       <c r="E391" s="10"/>
-      <c r="F391" s="59">
+      <c r="F391" s="38">
         <v>2</v>
       </c>
-      <c r="G391" s="58" t="s">
-        <v>333</v>
+      <c r="G391" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
@@ -13626,7 +13629,7 @@
       <c r="D392" s="10"/>
       <c r="E392" s="10"/>
       <c r="F392" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G392" s="10"/>
       <c r="H392" s="10"/>
@@ -13641,7 +13644,7 @@
       <c r="C393" s="10"/>
       <c r="D393" s="10"/>
       <c r="E393" s="10"/>
-      <c r="F393" s="22"/>
+      <c r="F393" s="18"/>
       <c r="G393" s="10"/>
       <c r="H393" s="10"/>
       <c r="I393" s="10"/>
@@ -13655,11 +13658,11 @@
       <c r="C394" s="10"/>
       <c r="D394" s="10"/>
       <c r="E394" s="10"/>
-      <c r="F394" s="59">
+      <c r="F394" s="38">
         <v>1</v>
       </c>
-      <c r="G394" s="23" t="s">
-        <v>342</v>
+      <c r="G394" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
@@ -13673,11 +13676,11 @@
       <c r="C395" s="10"/>
       <c r="D395" s="10"/>
       <c r="E395" s="10"/>
-      <c r="F395" s="59">
+      <c r="F395" s="38">
         <v>2</v>
       </c>
-      <c r="G395" s="58" t="s">
-        <v>333</v>
+      <c r="G395" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H395" s="10"/>
       <c r="I395" s="10"/>
@@ -13692,7 +13695,7 @@
       <c r="D396" s="10"/>
       <c r="E396" s="10"/>
       <c r="F396" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G396" s="10"/>
       <c r="H396" s="10"/>
@@ -13707,7 +13710,7 @@
       <c r="C397" s="10"/>
       <c r="D397" s="10"/>
       <c r="E397" s="10"/>
-      <c r="F397" s="22"/>
+      <c r="F397" s="18"/>
       <c r="G397" s="10"/>
       <c r="H397" s="10"/>
       <c r="I397" s="10"/>
@@ -13721,11 +13724,11 @@
       <c r="C398" s="10"/>
       <c r="D398" s="10"/>
       <c r="E398" s="10"/>
-      <c r="F398" s="59">
+      <c r="F398" s="38">
         <v>1</v>
       </c>
-      <c r="G398" s="23" t="s">
-        <v>344</v>
+      <c r="G398" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="H398" s="10"/>
       <c r="I398" s="10"/>
@@ -13739,11 +13742,11 @@
       <c r="C399" s="10"/>
       <c r="D399" s="10"/>
       <c r="E399" s="10"/>
-      <c r="F399" s="59">
+      <c r="F399" s="38">
         <v>2</v>
       </c>
-      <c r="G399" s="58" t="s">
-        <v>345</v>
+      <c r="G399" s="37" t="s">
+        <v>344</v>
       </c>
       <c r="H399" s="10"/>
       <c r="I399" s="10"/>
@@ -13758,7 +13761,7 @@
       <c r="D400" s="10"/>
       <c r="E400" s="10"/>
       <c r="F400" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G400" s="10"/>
       <c r="H400" s="10"/>
@@ -13774,7 +13777,7 @@
       <c r="D401" s="10"/>
       <c r="E401" s="10"/>
       <c r="F401" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G401" s="10"/>
       <c r="H401" s="10"/>
@@ -13789,7 +13792,7 @@
       <c r="C402" s="10"/>
       <c r="D402" s="10"/>
       <c r="E402" s="10"/>
-      <c r="F402" s="22"/>
+      <c r="F402" s="18"/>
       <c r="G402" s="10"/>
       <c r="H402" s="10"/>
       <c r="I402" s="10"/>
@@ -13803,11 +13806,11 @@
       <c r="C403" s="10"/>
       <c r="D403" s="10"/>
       <c r="E403" s="10"/>
-      <c r="F403" s="59">
+      <c r="F403" s="38">
         <v>1</v>
       </c>
-      <c r="G403" s="23" t="s">
-        <v>348</v>
+      <c r="G403" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
@@ -13821,11 +13824,11 @@
       <c r="C404" s="10"/>
       <c r="D404" s="10"/>
       <c r="E404" s="10"/>
-      <c r="F404" s="59">
+      <c r="F404" s="38">
         <v>2</v>
       </c>
-      <c r="G404" s="58" t="s">
-        <v>333</v>
+      <c r="G404" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H404" s="10"/>
       <c r="I404" s="10"/>
@@ -13840,7 +13843,7 @@
       <c r="D405" s="10"/>
       <c r="E405" s="10"/>
       <c r="F405" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G405" s="10"/>
       <c r="H405" s="10"/>
@@ -13856,7 +13859,7 @@
       <c r="D406" s="10"/>
       <c r="E406" s="10"/>
       <c r="F406" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G406" s="10"/>
       <c r="H406" s="10"/>
@@ -13871,7 +13874,7 @@
       <c r="C407" s="10"/>
       <c r="D407" s="10"/>
       <c r="E407" s="10"/>
-      <c r="F407" s="22"/>
+      <c r="F407" s="18"/>
       <c r="G407" s="10"/>
       <c r="H407" s="10"/>
       <c r="I407" s="10"/>
@@ -13885,11 +13888,11 @@
       <c r="C408" s="10"/>
       <c r="D408" s="10"/>
       <c r="E408" s="10"/>
-      <c r="F408" s="59">
+      <c r="F408" s="38">
         <v>1</v>
       </c>
-      <c r="G408" s="23" t="s">
-        <v>351</v>
+      <c r="G408" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="H408" s="10"/>
       <c r="I408" s="10"/>
@@ -13903,11 +13906,11 @@
       <c r="C409" s="10"/>
       <c r="D409" s="10"/>
       <c r="E409" s="10"/>
-      <c r="F409" s="59">
+      <c r="F409" s="38">
         <v>2</v>
       </c>
-      <c r="G409" s="58" t="s">
-        <v>333</v>
+      <c r="G409" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H409" s="10"/>
       <c r="I409" s="10"/>
@@ -13922,7 +13925,7 @@
       <c r="D410" s="10"/>
       <c r="E410" s="10"/>
       <c r="F410" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G410" s="10"/>
       <c r="H410" s="10"/>
@@ -13932,13 +13935,13 @@
       <c r="L410" s="10"/>
       <c r="M410" s="10"/>
     </row>
-    <row r="411" spans="2:13" ht="15.75">
+    <row r="411" spans="2:13">
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
       <c r="D411" s="10"/>
       <c r="E411" s="10"/>
-      <c r="F411" s="42" t="s">
-        <v>161</v>
+      <c r="F411" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="G411" s="10"/>
       <c r="H411" s="10"/>
@@ -13953,7 +13956,7 @@
       <c r="C412" s="10"/>
       <c r="D412" s="10"/>
       <c r="E412" s="10"/>
-      <c r="F412" s="22"/>
+      <c r="F412" s="18"/>
       <c r="G412" s="10"/>
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
@@ -13967,11 +13970,11 @@
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
       <c r="E413" s="10"/>
-      <c r="F413" s="59">
+      <c r="F413" s="38">
         <v>1</v>
       </c>
-      <c r="G413" s="23" t="s">
-        <v>353</v>
+      <c r="G413" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="H413" s="10"/>
       <c r="I413" s="10"/>
@@ -13985,11 +13988,11 @@
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
       <c r="E414" s="10"/>
-      <c r="F414" s="59">
+      <c r="F414" s="38">
         <v>2</v>
       </c>
-      <c r="G414" s="58" t="s">
-        <v>333</v>
+      <c r="G414" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="H414" s="10"/>
       <c r="I414" s="10"/>
@@ -14004,7 +14007,7 @@
       <c r="D415" s="10"/>
       <c r="E415" s="10"/>
       <c r="F415" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G415" s="10"/>
       <c r="H415" s="10"/>
@@ -14044,6 +14047,61 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="B188:B191"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="B227:B236"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="D268:D269"/>
     <mergeCell ref="B342:B355"/>
     <mergeCell ref="D342:D355"/>
     <mergeCell ref="B274:B282"/>
@@ -14053,61 +14111,6 @@
     <mergeCell ref="B323:B325"/>
     <mergeCell ref="B330:B332"/>
     <mergeCell ref="D330:D332"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="D255:D257"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="B227:B236"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="B188:B191"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="C201:C204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="D59:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
